--- a/INFORMATION/info_sitios.xlsx
+++ b/INFORMATION/info_sitios.xlsx
@@ -16,44 +16,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>cys</t>
   </si>
   <si>
-    <t>99 union a ligando</t>
-  </si>
-  <si>
-    <t>27 union</t>
-  </si>
-  <si>
-    <t>sitio activo</t>
-  </si>
-  <si>
-    <t>sitio de glicosilacion</t>
-  </si>
-  <si>
     <t>156 sitio de glicosilacion</t>
   </si>
   <si>
-    <t>a61 sitio activo</t>
-  </si>
-  <si>
-    <t>variacion sitios antes del 200 en zona desordenada</t>
-  </si>
-  <si>
     <t>serin proteases</t>
   </si>
   <si>
-    <t>48 sitio activo</t>
+    <t>snakes toxin</t>
+  </si>
+  <si>
+    <t>sitio activo?</t>
+  </si>
+  <si>
+    <t>Número estructuras</t>
+  </si>
+  <si>
+    <t>Tamaño promedio</t>
+  </si>
+  <si>
+    <t>sh3</t>
+  </si>
+  <si>
+    <t>273 ATP binding site</t>
+  </si>
+  <si>
+    <t>364 aceptor protones</t>
+  </si>
+  <si>
+    <t>sitios en contacto con las otras cadenas?</t>
+  </si>
+  <si>
+    <t>ninguno de estos en la cadena A (la que está en homstrad)</t>
+  </si>
+  <si>
+    <t>fabp</t>
+  </si>
+  <si>
+    <t>127, 129, faty acids binding sites</t>
+  </si>
+  <si>
+    <t>60, 62, 65, 70 sitios de unión a calcio</t>
+  </si>
+  <si>
+    <t>48, 92, 179, 185  sitio activo</t>
+  </si>
+  <si>
+    <t>rrm</t>
+  </si>
+  <si>
+    <t>61 sitio activo</t>
+  </si>
+  <si>
+    <t>phoslip</t>
+  </si>
+  <si>
+    <t>43, 45, 47, 64 unión a calcio</t>
+  </si>
+  <si>
+    <t>63, 105 sitio activo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sitio activo? Se ve en la imagen del pdb, pero no se q sitios son</t>
+  </si>
+  <si>
+    <t>27  sitio activo</t>
+  </si>
+  <si>
+    <t>99 union a ligando, sitio de glicosilación</t>
+  </si>
+  <si>
+    <t>familia</t>
+  </si>
+  <si>
+    <t>info sitios</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>globins</t>
+  </si>
+  <si>
+    <t>28, 29, 32, 64, 68, 93, 107, 152, 153, 154, 155, 156, sitios en contacto con hemo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +156,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,58 +472,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C8" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/INFORMATION/info_sitios.xlsx
+++ b/INFORMATION/info_sitios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>cys</t>
   </si>
@@ -30,9 +30,6 @@
     <t>snakes toxin</t>
   </si>
   <si>
-    <t>sitio activo?</t>
-  </si>
-  <si>
     <t>Número estructuras</t>
   </si>
   <si>
@@ -63,15 +60,9 @@
     <t>60, 62, 65, 70 sitios de unión a calcio</t>
   </si>
   <si>
-    <t>48, 92, 179, 185  sitio activo</t>
-  </si>
-  <si>
     <t>rrm</t>
   </si>
   <si>
-    <t>61 sitio activo</t>
-  </si>
-  <si>
     <t>phoslip</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>sitio activo? Se ve en la imagen del pdb, pero no se q sitios son</t>
-  </si>
-  <si>
     <t>27  sitio activo</t>
   </si>
   <si>
@@ -106,13 +94,28 @@
   </si>
   <si>
     <t>28, 29, 32, 64, 68, 93, 107, 152, 153, 154, 155, 156, sitios en contacto con hemo</t>
+  </si>
+  <si>
+    <t>161 sitio activo</t>
+  </si>
+  <si>
+    <t>48, 92, 185  sitio activo</t>
+  </si>
+  <si>
+    <t>179 sitio necesario para especificidad</t>
+  </si>
+  <si>
+    <t>sitio de unión a ARN? Se ve en la imagen del pdb, pero no se q sitios son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sitio activo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +134,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -171,6 +180,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,19 +500,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -541,7 +553,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -552,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>0.38</v>
@@ -567,38 +579,30 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>63</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="2">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -608,18 +612,26 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -635,80 +647,89 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="D13" s="1">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1">
-        <v>132</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.36</v>
       </c>
       <c r="D14" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1">
+        <v>121</v>
+      </c>
+      <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1">
-        <v>121</v>
-      </c>
-      <c r="E15" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
+      <c r="E18" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
